--- a/topic_split/topic_15.xlsx
+++ b/topic_split/topic_15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>issue</t>
   </si>
@@ -22,41 +22,43 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[3.70037731e-308 2.19415090e-308 3.30016416e-308 2.14847866e-308
- 4.05035727e-308 6.93686361e-308 1.54697798e-307 1.81618581e-307
- 4.48899644e-308 3.97671485e-308 1.15103354e-307 3.69832862e-308
- 8.20365016e-308 2.82545099e-308 1.00000000e+000 4.30016037e-308
- 6.68684753e-308 2.23955805e-307 5.49883934e-308 5.55891704e-308
- 5.09736760e-308 7.03554461e-308 8.56867174e-308 4.65425894e-308
- 4.97080984e-308]</t>
-  </si>
-  <si>
-    <t>[0.00866001 0.0044443  0.00684897 0.00435244 0.00939396 0.01852081
- 0.02460347 0.03815065 0.00902721 0.00851111 0.02393662 0.00763592
- 0.01502135 0.00563697 0.07635912 0.00935118 0.01736869 0.03678109
- 0.01203758 0.01171707 0.01037479 0.01662338 0.01851456 0.00992575
- 0.01016705]</t>
-  </si>
-  <si>
-    <t>[3.63041176e-308 2.25100122e-308 3.29307464e-308 2.20397611e-308
- 3.87933368e-308 6.42460705e-308 1.73125517e-307 1.58654706e-307
- 4.51150242e-308 4.03513797e-308 1.09752695e-307 3.70629612e-308
- 8.57277681e-308 2.91905055e-308 1.00000000e+000 4.32582481e-308
- 6.35556308e-308 2.55100148e-307 5.49078640e-308 5.68915238e-308
- 5.07891080e-308 6.86968587e-308 8.16956594e-308 4.74948232e-308
- 5.03056763e-308]</t>
-  </si>
-  <si>
-    <t>[3.60676782e-308 2.22493829e-308 3.32812055e-308 2.17787304e-308
- 3.97099340e-308 6.58371567e-308 1.69685901e-307 1.76443700e-307
- 4.57343120e-308 3.96733331e-308 1.15223771e-307 3.74189414e-308
- 8.55680219e-308 2.87744182e-308 1.00000000e+000 4.27469572e-308
- 6.36550870e-308 2.26674148e-307 5.45489578e-308 5.55744135e-308
- 5.16388252e-308 6.83379138e-308 8.46463321e-308 4.64343799e-308
- 5.03330231e-308]</t>
+    <t>Create new tab structure under Surge page
+### Feature Description
+Add new tab:
+- Active Surge Deployments
+Add a subtab under Surge Overview:
+- Rapid Response Personnel
+- Emergency Response Unit</t>
+  </si>
+  <si>
+    <t>New Active Surge Deployments Page
+### Feature Description
+In this tab page:
+- [ ] Add detail in Active Deployments Map
+- [ ] Add Active Surge Support Per Emergency Card
+- [x] Add Active Rapid Response Alerts Table
+- [x] Ongoing Rapid Response Deployments Table
+- [ ] Ongoing ERU Deployments Table</t>
+  </si>
+  <si>
+    <t>New Rapid Response Personnel Page
+### Feature Description
+In this tab add:
+- [ ] Bar chart
+- [ ] Line chart
+- [ ] Ongoing Rapid Response Deployments Table
+- [ ] Active Rapid Response Alerts Table
+### Additional Context
+_No response_</t>
+  </si>
+  <si>
+    <t>New Emergency Response Units Page
+### Feature Description
+In this tab, add:
+- [ ] ERU Capacity And Readiness Card
+- [ ] Ongoing ERU Deployments
+### Additional Context
+_No response_</t>
   </si>
 </sst>
 </file>
@@ -414,65 +416,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>43</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>51</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>101</v>
       </c>
       <c r="B5">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
